--- a/datos/datosEjercicio_ESTMAS.xlsx
+++ b/datos/datosEjercicio_ESTMAS.xlsx
@@ -1,21 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GB\MUESTREO\Muestreo-I\datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8E13D-9F84-4A7A-85A7-8F472F89BBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>Nh</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>syk</t>
+  </si>
+  <si>
+    <t>s2yh</t>
+  </si>
+  <si>
+    <t>Fexp</t>
+  </si>
+  <si>
+    <t>Total_est</t>
+  </si>
+  <si>
+    <t>Var_est</t>
+  </si>
+  <si>
+    <t>cve</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,6 +84,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,24 +117,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,41 +429,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nh</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>nh</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>syk</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>s2yh</t>
-        </is>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -395,13 +487,37 @@
         <v>98</v>
       </c>
       <c r="D2">
-        <v>2361.8</v>
+        <v>2361.8000000000002</v>
       </c>
       <c r="E2">
         <v>5575</v>
       </c>
+      <c r="F2">
+        <f>+B2/C2</f>
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="G2" s="2">
+        <f>+F2*D2</f>
+        <v>9640.0000000000018</v>
+      </c>
+      <c r="H2">
+        <f>B2^2/C2*(1-C2/B2)*E2</f>
+        <v>6872040.8163265307</v>
+      </c>
+      <c r="I2">
+        <f>+SQRT(H2)/G2</f>
+        <v>0.27193545285321696</v>
+      </c>
+      <c r="J2">
+        <f>+G2-1.96*SQRT(H2)</f>
+        <v>4501.9427796101781</v>
+      </c>
+      <c r="K2">
+        <f>+G2+1.96*SQRT(H2)</f>
+        <v>14778.057220389826</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -417,8 +533,32 @@
       <c r="E3">
         <v>4064</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">+B3/C3</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G7" si="1">+F3*D3</f>
+        <v>768</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">B3^2/C3*(1-C3/B3)*E3</f>
+        <v>243840.00000000003</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="3">+SQRT(H3)/G3</f>
+        <v>0.64297080675045692</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J7" si="4">+G3-1.96*SQRT(H3)</f>
+        <v>-199.85109598532779</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="5">+G3+1.96*SQRT(H3)</f>
+        <v>1735.8510959853279</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -429,13 +569,37 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>9901.200000000001</v>
+        <v>9901.2000000000007</v>
       </c>
       <c r="E4">
         <v>347556</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.6486486486486487</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>16323.600000000002</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>13751945.513513513</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.22717792443196572</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>9055.2113281750353</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>23591.988671824969</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -451,8 +615,32 @@
       <c r="E5">
         <v>22798</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>3222</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>820728.00000000012</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.28117330707335103</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>1446.3568250349394</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>4997.6431749650601</v>
+      </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -468,8 +656,32 @@
       <c r="E6">
         <v>123578</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.7948717948717949</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>20559</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>6876006.666666666</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.12754579878399513</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>15419.460408687693</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>25698.539591312307</v>
+      </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -484,6 +696,52 @@
       </c>
       <c r="E7">
         <v>9795</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>3984.0000000000005</v>
+      </c>
+      <c r="H7">
+        <f>B7^2/C7*(1-C7/B7)*E7</f>
+        <v>5541171.4285714282</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.59085574603151658</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>-629.77981269154088</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>8597.7798126915422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G8" s="3">
+        <f>SUM(G2:G7)</f>
+        <v>54496.600000000006</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(H2:H7)</f>
+        <v>34105732.425078131</v>
+      </c>
+      <c r="I8">
+        <f>+SQRT(H8)/G8</f>
+        <v>0.10716285672413568</v>
+      </c>
+      <c r="J8" s="4">
+        <f>+G8-1.96*SQRT(H8)</f>
+        <v>43050.17777800504</v>
+      </c>
+      <c r="K8" s="4">
+        <f>+G8+1.96*SQRT(H8)</f>
+        <v>65943.022221994965</v>
       </c>
     </row>
   </sheetData>
